--- a/data/Dissertation-Own-Work.xlsx
+++ b/data/Dissertation-Own-Work.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1033F956-5AFC-4777-AF9B-45CA184E5D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="5920" yWindow="5920" windowWidth="27000" windowHeight="17250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="own" sheetId="1" r:id="rId4"/>
+    <sheet name="own" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="78">
   <si>
     <t>Paper</t>
   </si>
@@ -170,29 +179,108 @@
   </si>
   <si>
     <t>Multiple</t>
+  </si>
+  <si>
+    <t>core-colley2024trust</t>
+  </si>
+  <si>
+    <t>core-colley2024visualizing</t>
+  </si>
+  <si>
+    <t>core-colley2024bo</t>
+  </si>
+  <si>
+    <t>No "one" visualization</t>
+  </si>
+  <si>
+    <t>mutiple vis.</t>
+  </si>
+  <si>
+    <t>67.87</t>
+  </si>
+  <si>
+    <t>68.27</t>
+  </si>
+  <si>
+    <t>69.54</t>
+  </si>
+  <si>
+    <t>70.23</t>
+  </si>
+  <si>
+    <t>71.11</t>
+  </si>
+  <si>
+    <t>72.25</t>
+  </si>
+  <si>
+    <t>73.61</t>
+  </si>
+  <si>
+    <t>74.09</t>
+  </si>
+  <si>
+    <t>75.13</t>
+  </si>
+  <si>
+    <t>76.26</t>
+  </si>
+  <si>
+    <t>77.1</t>
+  </si>
+  <si>
+    <t>78.22</t>
+  </si>
+  <si>
+    <t>79.09</t>
+  </si>
+  <si>
+    <t>80.09</t>
+  </si>
+  <si>
+    <t>80.97</t>
+  </si>
+  <si>
+    <t>81.35</t>
+  </si>
+  <si>
+    <t>82.58</t>
+  </si>
+  <si>
+    <t>83.68</t>
+  </si>
+  <si>
+    <t>85.16</t>
+  </si>
+  <si>
+    <t>86.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -202,45 +290,47 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -430,23 +520,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.25"/>
+    <col min="1" max="1" width="33.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -528,22 +623,22 @@
         <v>0.76</v>
       </c>
       <c r="F2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="I2" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>25</v>
@@ -558,17 +653,17 @@
         <v>27</v>
       </c>
       <c r="Q2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -585,22 +680,22 @@
         <v>0.75</v>
       </c>
       <c r="F3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="I3" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>26</v>
@@ -624,13 +719,13 @@
         <v>30</v>
       </c>
       <c r="T3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -647,22 +742,22 @@
         <v>1.46</v>
       </c>
       <c r="F4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H4" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="I4" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K4" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>25</v>
@@ -674,17 +769,17 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -701,22 +796,22 @@
         <v>1.86</v>
       </c>
       <c r="F5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H5" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="I5" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K5" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>26</v>
@@ -731,20 +826,20 @@
         <v>34</v>
       </c>
       <c r="Q5" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -761,22 +856,22 @@
         <v>0.96</v>
       </c>
       <c r="F6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="I6" s="1">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>25</v>
@@ -788,17 +883,17 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -815,22 +910,22 @@
         <v>0.92</v>
       </c>
       <c r="F7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H7" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="I7" s="1">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>26</v>
@@ -854,13 +949,13 @@
         <v>30</v>
       </c>
       <c r="T7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -877,22 +972,22 @@
         <v>1.19</v>
       </c>
       <c r="F8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H8" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="I8" s="1">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K8" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>26</v>
@@ -914,13 +1009,13 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -937,22 +1032,22 @@
         <v>1.08</v>
       </c>
       <c r="F9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="I9" s="1">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K9" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>26</v>
@@ -967,20 +1062,20 @@
         <v>39</v>
       </c>
       <c r="Q9" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -991,13 +1086,13 @@
         <v>23</v>
       </c>
       <c r="H10" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="I10" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="K10" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>25</v>
@@ -1012,17 +1107,17 @@
         <v>44</v>
       </c>
       <c r="Q10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -1033,10 +1128,10 @@
         <v>38</v>
       </c>
       <c r="H11" s="1">
-        <v>2022.0</v>
+        <v>2022</v>
       </c>
       <c r="K11" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>25</v>
@@ -1051,17 +1146,17 @@
         <v>44</v>
       </c>
       <c r="Q11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -1075,22 +1170,22 @@
         <v>0.78</v>
       </c>
       <c r="F12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H12" s="1">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="I12" s="1">
-        <v>280.0</v>
+        <v>280</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K12" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>26</v>
@@ -1105,7 +1200,7 @@
         <v>27</v>
       </c>
       <c r="Q12" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>48</v>
@@ -1114,13 +1209,13 @@
         <v>49</v>
       </c>
       <c r="T12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -1134,22 +1229,22 @@
         <v>0.9</v>
       </c>
       <c r="F13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H13" s="1">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="I13" s="1">
-        <v>280.0</v>
+        <v>280</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K13" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>26</v>
@@ -1164,7 +1259,7 @@
         <v>27</v>
       </c>
       <c r="Q13" s="1">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>50</v>
@@ -1173,13 +1268,13 @@
         <v>51</v>
       </c>
       <c r="T13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -1193,22 +1288,22 @@
         <v>0.79</v>
       </c>
       <c r="F14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H14" s="1">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="I14" s="1">
-        <v>280.0</v>
+        <v>280</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K14" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>26</v>
@@ -1223,17 +1318,17 @@
         <v>27</v>
       </c>
       <c r="Q14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -1247,22 +1342,22 @@
         <v>0.91</v>
       </c>
       <c r="F15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H15" s="1">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="I15" s="1">
-        <v>280.0</v>
+        <v>280</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K15" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>25</v>
@@ -1277,28 +1372,1044 @@
         <v>27</v>
       </c>
       <c r="Q15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>100.0</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3.930769230769231</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1.1253833905785631</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="1">
+        <v>5</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="5">
+        <v>3.8923076923076918</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1.063824851864368</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="1">
+        <v>5</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="5">
+        <v>3.9269230769230772</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1.067692466649127</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="1">
+        <v>5</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3.861538461538462</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1.1680756463361039</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="1">
+        <v>5</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3.930769230769231</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1.0053227453418769</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="1">
+        <v>5</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="5">
+        <v>4.0384615384615383</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.93927108596392306</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="1">
+        <v>5</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3.9961538461538462</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.99513575453117586</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="1">
+        <v>5</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="5">
+        <v>3.9730769230769232</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.98498718848461742</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="1">
+        <v>5</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="5">
+        <v>4.1230769230769226</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.9381276471829747</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="1">
+        <v>5</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="5">
+        <v>4.0615384615384613</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.97052567993251349</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>5</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="1">
+        <v>5</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="5">
+        <v>4.0115384615384606</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.97540566916513016</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>5</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="1">
+        <v>5</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="5">
+        <v>4</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.97049495883094572</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>5</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="1">
+        <v>5</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="5">
+        <v>4.134615384615385</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.95192270046913774</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>5</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="1">
+        <v>5</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="5">
+        <v>3.976923076923077</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1.0112957734133929</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>5</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="1">
+        <v>5</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="5">
+        <v>4.0769230769230766</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.87926488513019629</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>5</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="1">
+        <v>5</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
+      <c r="U32" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="5">
+        <v>4.0807692307692296</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.95195402092781978</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>5</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="1">
+        <v>5</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="5">
+        <v>4.1384615384615389</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.86940990549944885</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>5</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="1">
+        <v>5</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="5">
+        <v>4.1923076923076934</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.83616097487825991</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="1">
+        <v>5</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="5">
+        <v>4.1653846153846157</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.91157173564061489</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>5</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="1">
+        <v>5</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="5">
+        <v>4.1961538461538463</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.89029250886530631</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>5</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="1">
+        <v>5</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B5"/>
-    <hyperlink r:id="rId5" ref="B6"/>
-    <hyperlink r:id="rId6" ref="B7"/>
-    <hyperlink r:id="rId7" ref="B8"/>
-    <hyperlink r:id="rId8" ref="B9"/>
-    <hyperlink r:id="rId9" ref="B10"/>
-    <hyperlink r:id="rId10" ref="B11"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
-  <drawing r:id="rId11"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Dissertation-Own-Work.xlsx
+++ b/data/Dissertation-Own-Work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1033F956-5AFC-4777-AF9B-45CA184E5D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1F4EB7-C5E1-4EDA-95E4-3362E80EABE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5920" yWindow="5920" windowWidth="27000" windowHeight="17250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="77">
   <si>
     <t>Paper</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Sit. Detection</t>
-  </si>
-  <si>
-    <t>(%, mIoU)</t>
   </si>
   <si>
     <t>\cite{Cheng_2020_CVPR}</t>
@@ -533,7 +530,7 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -712,11 +709,9 @@
       <c r="Q3" s="1">
         <v>84.2</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="1"/>
+      <c r="S3" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="T3" s="1">
         <v>0</v>
@@ -727,10 +722,10 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>23</v>
@@ -781,10 +776,10 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>
@@ -808,28 +803,28 @@
         <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="K5" s="1">
-        <v>5</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="Q5" s="1">
         <v>75</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="1">
@@ -841,13 +836,13 @@
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1">
         <v>3.76</v>
@@ -895,13 +890,13 @@
     </row>
     <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1">
         <v>3.46</v>
@@ -937,16 +932,14 @@
         <v>0</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="1">
         <v>84.2</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="1"/>
+      <c r="S7" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="T7" s="1">
         <v>0</v>
@@ -957,13 +950,13 @@
     </row>
     <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1">
         <v>3.59</v>
@@ -984,7 +977,7 @@
         <v>216</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8" s="1">
         <v>5</v>
@@ -999,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="1">
         <v>59.9</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="1">
@@ -1017,13 +1010,13 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1">
         <v>3.17</v>
@@ -1044,7 +1037,7 @@
         <v>216</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9" s="1">
         <v>5</v>
@@ -1059,13 +1052,13 @@
         <v>0</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="1">
         <v>70</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="1">
@@ -1077,10 +1070,10 @@
     </row>
     <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>23</v>
@@ -1104,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q10" s="1">
         <v>1</v>
@@ -1119,13 +1112,13 @@
     </row>
     <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="1">
         <v>2022</v>
@@ -1143,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="1">
         <v>1</v>
@@ -1158,10 +1151,10 @@
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1">
         <v>3.77</v>
@@ -1182,7 +1175,7 @@
         <v>280</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" s="1">
         <v>5</v>
@@ -1203,10 +1196,10 @@
         <v>80</v>
       </c>
       <c r="R12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S12" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
@@ -1217,10 +1210,10 @@
     </row>
     <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1">
         <v>3.62</v>
@@ -1241,7 +1234,7 @@
         <v>280</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13" s="1">
         <v>5</v>
@@ -1262,10 +1255,10 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="R13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -1276,10 +1269,10 @@
     </row>
     <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1">
         <v>3.93</v>
@@ -1300,7 +1293,7 @@
         <v>280</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K14" s="1">
         <v>5</v>
@@ -1330,10 +1323,10 @@
     </row>
     <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1">
         <v>3.28</v>
@@ -1383,7 +1376,7 @@
     </row>
     <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
@@ -1398,7 +1391,7 @@
         <v>2023</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16" s="1">
         <v>5</v>
@@ -1410,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -1421,34 +1414,34 @@
     </row>
     <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>5</v>
-      </c>
-      <c r="H17" s="1">
-        <v>2023</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K17" s="1">
-        <v>5</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -1459,10 +1452,10 @@
     </row>
     <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="5">
         <v>3.930769230769231</v>
@@ -1492,11 +1485,9 @@
         <v>0</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="R18" s="1"/>
       <c r="T18" s="1">
         <v>0</v>
       </c>
@@ -1506,10 +1497,10 @@
     </row>
     <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="5">
         <v>3.8923076923076918</v>
@@ -1539,11 +1530,9 @@
         <v>0</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="R19" s="1"/>
       <c r="T19" s="1">
         <v>0</v>
       </c>
@@ -1553,10 +1542,10 @@
     </row>
     <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="5">
         <v>3.9269230769230772</v>
@@ -1586,11 +1575,9 @@
         <v>0</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="R20" s="1"/>
       <c r="T20" s="1">
         <v>0</v>
       </c>
@@ -1600,10 +1587,10 @@
     </row>
     <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="5">
         <v>3.861538461538462</v>
@@ -1633,11 +1620,9 @@
         <v>0</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="R21" s="1"/>
       <c r="T21" s="1">
         <v>0</v>
       </c>
@@ -1647,10 +1632,10 @@
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="5">
         <v>3.930769230769231</v>
@@ -1680,11 +1665,9 @@
         <v>0</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="R22" s="1"/>
       <c r="T22" s="1">
         <v>0</v>
       </c>
@@ -1694,10 +1677,10 @@
     </row>
     <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="5">
         <v>4.0384615384615383</v>
@@ -1727,11 +1710,9 @@
         <v>0</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="R23" s="1"/>
       <c r="T23" s="1">
         <v>0</v>
       </c>
@@ -1741,10 +1722,10 @@
     </row>
     <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="5">
         <v>3.9961538461538462</v>
@@ -1774,11 +1755,9 @@
         <v>0</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="R24" s="1"/>
       <c r="T24" s="1">
         <v>0</v>
       </c>
@@ -1788,10 +1767,10 @@
     </row>
     <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="5">
         <v>3.9730769230769232</v>
@@ -1821,11 +1800,9 @@
         <v>0</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="R25" s="1"/>
       <c r="T25" s="1">
         <v>0</v>
       </c>
@@ -1835,10 +1812,10 @@
     </row>
     <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="5">
         <v>4.1230769230769226</v>
@@ -1868,11 +1845,9 @@
         <v>0</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="R26" s="1"/>
       <c r="T26" s="1">
         <v>0</v>
       </c>
@@ -1882,10 +1857,10 @@
     </row>
     <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="5">
         <v>4.0615384615384613</v>
@@ -1915,11 +1890,9 @@
         <v>0</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="R27" s="1"/>
       <c r="T27" s="1">
         <v>0</v>
       </c>
@@ -1929,10 +1902,10 @@
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="5">
         <v>4.0115384615384606</v>
@@ -1962,11 +1935,9 @@
         <v>0</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="R28" s="1"/>
       <c r="T28" s="1">
         <v>0</v>
       </c>
@@ -1976,10 +1947,10 @@
     </row>
     <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" s="5">
         <v>4</v>
@@ -2009,11 +1980,9 @@
         <v>0</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="R29" s="1"/>
       <c r="T29" s="1">
         <v>0</v>
       </c>
@@ -2023,10 +1992,10 @@
     </row>
     <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="5">
         <v>4.134615384615385</v>
@@ -2056,11 +2025,9 @@
         <v>0</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="R30" s="1"/>
       <c r="T30" s="1">
         <v>0</v>
       </c>
@@ -2070,10 +2037,10 @@
     </row>
     <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="5">
         <v>3.976923076923077</v>
@@ -2103,11 +2070,9 @@
         <v>0</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="R31" s="1"/>
       <c r="T31" s="1">
         <v>0</v>
       </c>
@@ -2117,10 +2082,10 @@
     </row>
     <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="5">
         <v>4.0769230769230766</v>
@@ -2150,11 +2115,9 @@
         <v>0</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="R32" s="1"/>
       <c r="T32" s="1">
         <v>0</v>
       </c>
@@ -2164,10 +2127,10 @@
     </row>
     <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" s="5">
         <v>4.0807692307692296</v>
@@ -2197,11 +2160,9 @@
         <v>0</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="R33" s="1"/>
       <c r="T33" s="1">
         <v>0</v>
       </c>
@@ -2211,10 +2172,10 @@
     </row>
     <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="5">
         <v>4.1384615384615389</v>
@@ -2244,11 +2205,9 @@
         <v>0</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="R34" s="1"/>
       <c r="T34" s="1">
         <v>0</v>
       </c>
@@ -2258,10 +2217,10 @@
     </row>
     <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" s="5">
         <v>4.1923076923076934</v>
@@ -2291,11 +2250,9 @@
         <v>0</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="R35" s="1"/>
       <c r="T35" s="1">
         <v>0</v>
       </c>
@@ -2305,10 +2262,10 @@
     </row>
     <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" s="5">
         <v>4.1653846153846157</v>
@@ -2338,11 +2295,9 @@
         <v>0</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="R36" s="1"/>
       <c r="T36" s="1">
         <v>0</v>
       </c>
@@ -2352,10 +2307,10 @@
     </row>
     <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37" s="5">
         <v>4.1961538461538463</v>
@@ -2385,11 +2340,9 @@
         <v>0</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="R37" s="1"/>
       <c r="T37" s="1">
         <v>0</v>
       </c>

--- a/data/Dissertation-Own-Work.xlsx
+++ b/data/Dissertation-Own-Work.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Desktop\AA_OWN_DISSERTATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1F4EB7-C5E1-4EDA-95E4-3362E80EABE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4E4D0A-0FF3-4753-A9D0-92CD9FAEDD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="5920" windowWidth="27000" windowHeight="17250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="own" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="78">
   <si>
     <t>Paper</t>
   </si>
@@ -142,9 +142,6 @@
     <t>(ped. via AP; veh. sim.)</t>
   </si>
   <si>
-    <t>Man. Planning</t>
-  </si>
-  <si>
     <t>core-ar4cad</t>
   </si>
   <si>
@@ -251,13 +248,19 @@
   </si>
   <si>
     <t>86.2</t>
+  </si>
+  <si>
+    <t>Traj. Planning</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/abs/10.1145/3631408</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -281,6 +284,20 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -299,18 +316,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -529,16 +550,17 @@
   </sheetPr>
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.26953125" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,7 +625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -660,7 +682,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -720,7 +742,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -774,7 +796,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -834,7 +856,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -888,7 +910,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -948,7 +970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -1008,7 +1030,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1036,8 +1058,8 @@
       <c r="I9" s="1">
         <v>216</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>40</v>
+      <c r="J9" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="K9" s="1">
         <v>5</v>
@@ -1068,12 +1090,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>23</v>
@@ -1097,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="1">
         <v>1</v>
@@ -1110,12 +1132,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>37</v>
@@ -1136,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="1">
         <v>1</v>
@@ -1149,9 +1171,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>37</v>
@@ -1174,8 +1199,8 @@
       <c r="I12" s="1">
         <v>280</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>40</v>
+      <c r="J12" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="K12" s="1">
         <v>5</v>
@@ -1196,11 +1221,11 @@
         <v>80</v>
       </c>
       <c r="R12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="S12" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="T12" s="1">
         <v>0</v>
       </c>
@@ -1208,9 +1233,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>37</v>
@@ -1255,11 +1283,11 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="R13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="T13" s="1">
         <v>0</v>
       </c>
@@ -1267,9 +1295,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>37</v>
@@ -1293,7 +1324,7 @@
         <v>280</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14" s="1">
         <v>5</v>
@@ -1321,9 +1352,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>37</v>
@@ -1374,9 +1408,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
@@ -1391,68 +1425,68 @@
         <v>2023</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>51</v>
-      </c>
-      <c r="K16" s="1">
-        <v>5</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0</v>
-      </c>
-      <c r="U16" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>5</v>
-      </c>
-      <c r="H17" s="1">
-        <v>2023</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="1">
-        <v>5</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T17" s="1">
-        <v>0</v>
-      </c>
-      <c r="U17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>37</v>
@@ -1485,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R18" s="1"/>
       <c r="T18" s="1">
@@ -1495,9 +1529,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>37</v>
@@ -1530,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R19" s="1"/>
       <c r="T19" s="1">
@@ -1540,9 +1574,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>37</v>
@@ -1575,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R20" s="1"/>
       <c r="T20" s="1">
@@ -1585,9 +1619,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>37</v>
@@ -1620,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R21" s="1"/>
       <c r="T21" s="1">
@@ -1630,9 +1664,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>37</v>
@@ -1665,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R22" s="1"/>
       <c r="T22" s="1">
@@ -1675,9 +1709,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>37</v>
@@ -1710,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R23" s="1"/>
       <c r="T23" s="1">
@@ -1720,9 +1754,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>37</v>
@@ -1755,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R24" s="1"/>
       <c r="T24" s="1">
@@ -1765,9 +1799,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>37</v>
@@ -1800,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R25" s="1"/>
       <c r="T25" s="1">
@@ -1810,9 +1844,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>37</v>
@@ -1845,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R26" s="1"/>
       <c r="T26" s="1">
@@ -1855,9 +1889,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>37</v>
@@ -1890,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R27" s="1"/>
       <c r="T27" s="1">
@@ -1900,9 +1934,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>37</v>
@@ -1935,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R28" s="1"/>
       <c r="T28" s="1">
@@ -1945,9 +1979,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>37</v>
@@ -1980,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R29" s="1"/>
       <c r="T29" s="1">
@@ -1990,9 +2024,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>37</v>
@@ -2025,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R30" s="1"/>
       <c r="T30" s="1">
@@ -2035,9 +2069,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>37</v>
@@ -2070,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R31" s="1"/>
       <c r="T31" s="1">
@@ -2080,9 +2114,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>37</v>
@@ -2115,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R32" s="1"/>
       <c r="T32" s="1">
@@ -2125,9 +2159,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>37</v>
@@ -2160,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R33" s="1"/>
       <c r="T33" s="1">
@@ -2170,9 +2204,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>37</v>
@@ -2205,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R34" s="1"/>
       <c r="T34" s="1">
@@ -2215,9 +2249,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>37</v>
@@ -2250,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R35" s="1"/>
       <c r="T35" s="1">
@@ -2260,9 +2294,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>37</v>
@@ -2295,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R36" s="1"/>
       <c r="T36" s="1">
@@ -2305,9 +2339,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>37</v>
@@ -2340,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R37" s="1"/>
       <c r="T37" s="1">
@@ -2362,7 +2396,10 @@
     <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{5FE50A7F-E70F-45B9-A61F-6EC0B0E3DCCF}"/>
+    <hyperlink ref="B13:B15" r:id="rId12" display="https://dl.acm.org/doi/abs/10.1145/3631408" xr:uid="{20D2FB1B-0205-45C4-9328-93093701C00B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>